--- a/Bis.xlsx
+++ b/Bis.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INSPER\CIENCIA DE DADOS\PROJETO-1-CDADOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C15CB-DBD5-4CA1-A69E-24665749AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
   <si>
     <t>Treinamento</t>
   </si>
@@ -34,9 +40,6 @@
   </si>
   <si>
     <t>comiii uma caixa de bis sozinha 🙃</t>
-  </si>
-  <si>
-    <t>@verum_honorempf pois é. mas nao é so ela. so ver a maioria dos bis, gays, viados e lesbicas sao de esquerda e tem o porque disso.</t>
   </si>
   <si>
     <t>hoje eu comi uma caixa de bis e um bolo de aniversário quase inteiro</t>
@@ -175,9 +178,6 @@
   </si>
   <si>
     <t>@carolmarconi começou com o bis, agora é a domino's. o vírus das marcas taradas não para de se espalhar.</t>
-  </si>
-  <si>
-    <t>@virgini95908611 @mahh_netto @efeito2021 @starsforneto @eianna_julia @teamfelipenetoo @mozkadefense @brunamemes @corujalovefn @moondonetotoso @lsxneto @euhenryvieira @ojussauro @monepudim @mozkinhatops @agathanetogomes @vistor_jose @paodequeijoneto @liitomal @corujapremiium @girlof_netoland @muniz_geisiane @corujasfehneto @dinnerborne @mariacl39109825 @netossauroneto @felipedefense @netosart @brulipedreams @contigofefo @isabelacasarim @helo_leite_ @moriartysnake @irmaosneto @myrefugerlipe @netodetails_ @aware_neto @effectfelipe @supportdosmocos @supordeguinhas_ @supportvictorm @support_uvinhas @fenetoeffect @pudim_do_fefo @jheniqamaosneto @corujadouradafn @lovelybrug @forever_neto_ @solzinhofn @lacta é bem gostoso ,por dentro parece com um oreo, vcs gostam de bis sabor frutas vermelhas? eu acho horrível</t>
   </si>
   <si>
     <t>@juliette eu já quero bis @juliette</t>
@@ -2553,12 +2553,57 @@
   <si>
     <t>@mansaludah não esqueças dizer essa palavra😂  bis nie mehr</t>
   </si>
+  <si>
+    <t xml:space="preserve"> pois é. mas nao é so ela. so ver
+a maioria dos bis, gays, viados e lesbicas sao de esquerda e tem o porque disso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @mahh_netto @efeito2021 @starsforneto @eianna_julia @teamfelipenetoo 
+@mozkadefense @brunamemes @corujalovefn @moondonetotoso @lsxneto @euhenryvieira 
+@ojussauro @monepudim @mozkinhatops @agathanetogomes @vistor_jose @paodequeijoneto 
+@liitomal @corujapremiium @girlof_netoland @muniz_geisiane @corujasfehneto @dinnerborne 
+@mariacl39109825 @netossauroneto @felipedefense @netosart @brulipedreams @contigofefo A60
+@isabelacasarim @helo_leite_ @moriartysnake @irmaosneto @myrefugerlipe @netodetails_ 
+@aware_neto @effectfelipe @supportdosmocos @supordeguinhas_ @supportvictorm @support_uvinhas 
+@fenetoeffect @pudim_do_fefo @jheniqamaosneto @corujadouradafn @lovelybrug @forever_neto_
+@solzinhofn @lacta é bem gostoso ,por dentro parece com um oreo, vcs gostam de bis sabor frutas vermelhas? eu acho horrível</t>
+  </si>
+  <si>
+    <t>Relevância</t>
+  </si>
+  <si>
+    <t>Irrelevânte</t>
+  </si>
+  <si>
+    <t>Pouco relevante</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>Relevante</t>
+  </si>
+  <si>
+    <t>Muito relevante</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2610,22 +2655,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51CEA8AC-D70A-4735-8032-6CB53EC32D46}" name="Tabela1" displayName="Tabela1" ref="C2:D8" totalsRowShown="0">
+  <autoFilter ref="C2:D8" xr:uid="{51CEA8AC-D70A-4735-8032-6CB53EC32D46}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9809C3B4-F2FA-43AF-90C5-223BC7519019}" name="Número"/>
+    <tableColumn id="2" xr3:uid="{765D90D2-0AFD-4171-BA55-0CF0015B5A3B}" name="Classificação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2667,7 +2735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2699,9 +2767,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2733,6 +2819,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2908,3784 +3012,3844 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A451"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/Bis.xlsx
+++ b/Bis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INSPER\CIENCIA DE DADOS\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C15CB-DBD5-4CA1-A69E-24665749AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381E957-F779-4CDD-835C-E45D8BB13BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="763">
   <si>
     <t>Treinamento</t>
   </si>
@@ -156,10 +156,6 @@
 quem tomou o golpe foram os súditos. 
 tem gente em brasília sem $ p voltar p casa.
 bolsonaro sempre foi isso: nada.</t>
-  </si>
-  <si>
-    <t>novo vicio chamado "bis" da harsheys, eu n sei como se chama, falo bis pq ele vem numa caixinha e são do mesmo formato, tipo uma caixa de bis😊🙂🙃
-meu senhor, doce/chocolate é uma droga né, será que existe um chocolatras anonimos?</t>
   </si>
   <si>
     <t>a sorte no caso foi uma caixa de bis 😘</t>
@@ -2572,9 +2568,6 @@
     <t>Relevância</t>
   </si>
   <si>
-    <t>Irrelevânte</t>
-  </si>
-  <si>
     <t>Pouco relevante</t>
   </si>
   <si>
@@ -2597,6 +2590,16 @@
   </si>
   <si>
     <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>novo vicio chamado "bis" da harsheys, eh melhor do q bis, eu n sei como se chama, falo bis pq ele vem numa caixinha e são do mesmo formato, tipo uma caixa de bis😊🙂🙃
+meu senhor, doce/chocolate é uma droga né, será que existe um chocolatras anonimos?</t>
   </si>
 </sst>
 </file>
@@ -2687,6 +2690,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9809C3B4-F2FA-43AF-90C5-223BC7519019}" name="Número"/>
     <tableColumn id="2" xr3:uid="{765D90D2-0AFD-4171-BA55-0CF0015B5A3B}" name="Classificação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78772899-61DE-4298-8FE3-AA45FFC05077}" name="Tabela13" displayName="Tabela13" ref="C2:D8" totalsRowShown="0">
+  <autoFilter ref="C2:D8" xr:uid="{78772899-61DE-4298-8FE3-AA45FFC05077}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{22F2795F-AE1E-4675-9C0C-3B66A1922942}" name="Número"/>
+    <tableColumn id="2" xr3:uid="{87B044A4-7F81-4936-8C72-F700C663C485}" name="Classificação"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3015,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,1552 +3046,2299 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="B191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="B197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="B205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="B207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="B216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="B217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="B223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="B224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="B225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="B229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="B231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="B239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4591,2268 +5352,2328 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A451"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bis.xlsx
+++ b/Bis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INSPER\CIENCIA DE DADOS\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381E957-F779-4CDD-835C-E45D8BB13BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F238F7-D504-4D25-84CF-7FFEEEBDE177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5354,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6374,1299 +6374,2055 @@
         <v>489</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>748</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bis.xlsx
+++ b/Bis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INSPER\CIENCIA DE DADOS\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Downloads\INSPER\2 SEMESTRE (2021.2)\CDados\Projeto 1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F238F7-D504-4D25-84CF-7FFEEEBDE177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB7AB6-8323-4A86-8F74-677E95480CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17490" yWindow="11205" windowWidth="28800" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3029,19 +3029,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>749</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>762</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>750</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>157</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>167</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>196</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>197</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>199</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>202</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>219</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>220</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>223</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>227</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>230</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>231</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>232</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>233</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>235</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>237</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>240</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>241</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>242</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>243</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>244</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>245</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>246</v>
       </c>
@@ -5086,259 +5086,412 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>297</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5354,19 +5507,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B451" sqref="B451"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -5377,10 +5530,13 @@
         <v>761</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>299</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>757</v>
       </c>
@@ -5388,10 +5544,13 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>300</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -5399,10 +5558,13 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>301</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -5410,10 +5572,13 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
@@ -5421,10 +5586,13 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>303</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
@@ -5432,10 +5600,13 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>304</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>4</v>
       </c>
@@ -5443,10 +5614,13 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>305</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
@@ -5454,962 +5628,1535 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>497</v>
       </c>
@@ -6417,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>498</v>
       </c>
@@ -6425,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>499</v>
       </c>
@@ -6433,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>500</v>
       </c>
@@ -6441,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>501</v>
       </c>
@@ -6449,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -6457,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>503</v>
       </c>
@@ -6465,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>504</v>
       </c>
@@ -6473,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>505</v>
       </c>
@@ -6481,7 +7228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>506</v>
       </c>
@@ -6489,7 +7236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>507</v>
       </c>
@@ -6497,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>508</v>
       </c>
@@ -6505,7 +7252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>509</v>
       </c>
@@ -6513,7 +7260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>510</v>
       </c>
@@ -6521,7 +7268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>511</v>
       </c>
@@ -6529,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>512</v>
       </c>
@@ -6537,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>513</v>
       </c>
@@ -6545,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>514</v>
       </c>
@@ -6553,7 +7300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>515</v>
       </c>
@@ -6561,7 +7308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>516</v>
       </c>
@@ -6569,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>517</v>
       </c>
@@ -6577,7 +7324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>518</v>
       </c>
@@ -6585,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>519</v>
       </c>
@@ -6593,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>520</v>
       </c>
@@ -6601,7 +7348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>521</v>
       </c>
@@ -6609,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>522</v>
       </c>
@@ -6617,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>523</v>
       </c>
@@ -6625,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>524</v>
       </c>
@@ -6633,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>525</v>
       </c>
@@ -6641,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>526</v>
       </c>
@@ -6649,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>527</v>
       </c>
@@ -6657,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>528</v>
       </c>
@@ -6665,7 +7412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>529</v>
       </c>
@@ -6673,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>530</v>
       </c>
@@ -6681,7 +7428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>531</v>
       </c>
@@ -6689,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>532</v>
       </c>
@@ -6697,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>533</v>
       </c>
@@ -6705,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>534</v>
       </c>
@@ -6713,7 +7460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>535</v>
       </c>
@@ -6721,7 +7468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>536</v>
       </c>
@@ -6729,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>537</v>
       </c>
@@ -6737,7 +7484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>538</v>
       </c>
@@ -6745,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>539</v>
       </c>
@@ -6753,7 +7500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>540</v>
       </c>
@@ -6761,7 +7508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>541</v>
       </c>
@@ -6769,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>542</v>
       </c>
@@ -6777,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>543</v>
       </c>
@@ -6785,7 +7532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>544</v>
       </c>
@@ -6793,7 +7540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>545</v>
       </c>
@@ -6801,7 +7548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>546</v>
       </c>
@@ -6809,7 +7556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>547</v>
       </c>
@@ -6817,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>548</v>
       </c>
@@ -6825,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>549</v>
       </c>
@@ -6833,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>550</v>
       </c>
@@ -6841,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>551</v>
       </c>
@@ -6849,7 +7596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>552</v>
       </c>
@@ -6857,7 +7604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>553</v>
       </c>
@@ -6865,7 +7612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>554</v>
       </c>
@@ -6873,7 +7620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>555</v>
       </c>
@@ -6881,7 +7628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>556</v>
       </c>
@@ -6889,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>557</v>
       </c>
@@ -6897,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>558</v>
       </c>
@@ -6905,7 +7652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>559</v>
       </c>
@@ -6913,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>560</v>
       </c>
@@ -6921,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>561</v>
       </c>
@@ -6929,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>562</v>
       </c>
@@ -6937,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>563</v>
       </c>
@@ -6945,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>564</v>
       </c>
@@ -6953,7 +7700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>565</v>
       </c>
@@ -6961,7 +7708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>566</v>
       </c>
@@ -6969,7 +7716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>567</v>
       </c>
@@ -6977,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>568</v>
       </c>
@@ -6985,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>569</v>
       </c>
@@ -6993,7 +7740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>570</v>
       </c>
@@ -7001,7 +7748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>571</v>
       </c>
@@ -7009,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>572</v>
       </c>
@@ -7017,7 +7764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>573</v>
       </c>
@@ -7025,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>574</v>
       </c>
@@ -7033,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>575</v>
       </c>
@@ -7041,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>576</v>
       </c>
@@ -7049,7 +7796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>577</v>
       </c>
@@ -7057,7 +7804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>578</v>
       </c>
@@ -7065,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>579</v>
       </c>
@@ -7073,7 +7820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>580</v>
       </c>
@@ -7081,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>581</v>
       </c>
@@ -7089,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>582</v>
       </c>
@@ -7097,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>583</v>
       </c>
@@ -7105,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>584</v>
       </c>
@@ -7113,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>585</v>
       </c>
@@ -7121,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>586</v>
       </c>
@@ -7129,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>587</v>
       </c>
@@ -7137,7 +7884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>588</v>
       </c>
@@ -7145,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>589</v>
       </c>
@@ -7153,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>590</v>
       </c>
@@ -7161,7 +7908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>591</v>
       </c>
@@ -7169,7 +7916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>592</v>
       </c>
@@ -7177,7 +7924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>593</v>
       </c>
@@ -7185,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>594</v>
       </c>
@@ -7193,7 +7940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -7201,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>596</v>
       </c>
@@ -7209,7 +7956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>597</v>
       </c>
@@ -7217,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -7225,7 +7972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -7233,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>600</v>
       </c>
@@ -7241,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>601</v>
       </c>
@@ -7249,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>602</v>
       </c>
@@ -7257,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -7265,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>604</v>
       </c>
@@ -7273,7 +8020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>605</v>
       </c>
@@ -7281,7 +8028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -7289,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>607</v>
       </c>
@@ -7297,7 +8044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>608</v>
       </c>
@@ -7305,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>609</v>
       </c>
@@ -7313,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>610</v>
       </c>
@@ -7321,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>611</v>
       </c>
@@ -7329,7 +8076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>612</v>
       </c>
@@ -7337,7 +8084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>613</v>
       </c>
@@ -7345,7 +8092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>614</v>
       </c>
@@ -7353,7 +8100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>615</v>
       </c>
@@ -7361,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>616</v>
       </c>
@@ -7369,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>617</v>
       </c>
@@ -7377,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>618</v>
       </c>
@@ -7385,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>619</v>
       </c>
@@ -7393,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>620</v>
       </c>
@@ -7401,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>621</v>
       </c>
@@ -7409,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>622</v>
       </c>
@@ -7417,7 +8164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>623</v>
       </c>
@@ -7425,7 +8172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>624</v>
       </c>
@@ -7433,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>625</v>
       </c>
@@ -7441,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>626</v>
       </c>
@@ -7449,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -7457,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>628</v>
       </c>
@@ -7465,7 +8212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>629</v>
       </c>
@@ -7473,7 +8220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>630</v>
       </c>
@@ -7481,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>631</v>
       </c>
@@ -7489,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>632</v>
       </c>
@@ -7497,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>633</v>
       </c>
@@ -7505,7 +8252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>634</v>
       </c>
@@ -7513,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>635</v>
       </c>
@@ -7521,7 +8268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>636</v>
       </c>
@@ -7529,7 +8276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>637</v>
       </c>
@@ -7537,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>638</v>
       </c>
@@ -7545,7 +8292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>639</v>
       </c>
@@ -7553,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>640</v>
       </c>
@@ -7561,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>641</v>
       </c>
@@ -7569,7 +8316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>642</v>
       </c>
@@ -7577,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>643</v>
       </c>
@@ -7585,7 +8332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>644</v>
       </c>
@@ -7593,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>645</v>
       </c>
@@ -7601,7 +8348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>646</v>
       </c>
@@ -7609,7 +8356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>647</v>
       </c>
@@ -7617,7 +8364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>648</v>
       </c>
@@ -7625,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>649</v>
       </c>
@@ -7633,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>650</v>
       </c>
@@ -7641,7 +8388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>651</v>
       </c>
@@ -7649,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>652</v>
       </c>
@@ -7657,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>653</v>
       </c>
@@ -7665,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>654</v>
       </c>
@@ -7673,7 +8420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>655</v>
       </c>
@@ -7681,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>656</v>
       </c>
@@ -7689,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>657</v>
       </c>
@@ -7697,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>658</v>
       </c>
@@ -7705,7 +8452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>659</v>
       </c>
@@ -7713,7 +8460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>660</v>
       </c>
@@ -7721,7 +8468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>661</v>
       </c>
@@ -7729,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>662</v>
       </c>
@@ -7737,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>663</v>
       </c>
@@ -7745,7 +8492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>664</v>
       </c>
@@ -7753,7 +8500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>665</v>
       </c>
@@ -7761,7 +8508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>666</v>
       </c>
@@ -7769,7 +8516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>667</v>
       </c>
@@ -7777,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>668</v>
       </c>
@@ -7785,7 +8532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>669</v>
       </c>
@@ -7793,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>670</v>
       </c>
@@ -7801,7 +8548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>671</v>
       </c>
@@ -7809,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>672</v>
       </c>
@@ -7817,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>673</v>
       </c>
@@ -7825,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>674</v>
       </c>
@@ -7833,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>675</v>
       </c>
@@ -7841,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>676</v>
       </c>
@@ -7849,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>677</v>
       </c>
@@ -7857,7 +8604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>678</v>
       </c>
@@ -7865,7 +8612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>679</v>
       </c>
@@ -7873,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>680</v>
       </c>
@@ -7881,7 +8628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>681</v>
       </c>
@@ -7889,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>682</v>
       </c>
@@ -7897,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>683</v>
       </c>
@@ -7905,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>684</v>
       </c>
@@ -7913,7 +8660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>685</v>
       </c>
@@ -7921,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>686</v>
       </c>
@@ -7929,7 +8676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>687</v>
       </c>
@@ -7937,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>688</v>
       </c>
@@ -7945,7 +8692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>689</v>
       </c>
@@ -7953,7 +8700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>690</v>
       </c>
@@ -7961,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>691</v>
       </c>
@@ -7969,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>692</v>
       </c>
@@ -7977,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>693</v>
       </c>
@@ -7985,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>694</v>
       </c>
@@ -7993,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>695</v>
       </c>
@@ -8001,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>696</v>
       </c>
@@ -8009,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>697</v>
       </c>
@@ -8017,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>698</v>
       </c>
@@ -8025,7 +8772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>699</v>
       </c>
@@ -8033,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>700</v>
       </c>
@@ -8041,7 +8788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>701</v>
       </c>
@@ -8049,7 +8796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>702</v>
       </c>
@@ -8057,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>703</v>
       </c>
@@ -8065,7 +8812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>704</v>
       </c>
@@ -8073,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>705</v>
       </c>
@@ -8081,7 +8828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>706</v>
       </c>
@@ -8089,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>707</v>
       </c>
@@ -8097,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>708</v>
       </c>
@@ -8105,7 +8852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>709</v>
       </c>
@@ -8113,7 +8860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>710</v>
       </c>
@@ -8121,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>711</v>
       </c>
@@ -8129,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>712</v>
       </c>
@@ -8137,7 +8884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>713</v>
       </c>
@@ -8145,7 +8892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>714</v>
       </c>
@@ -8153,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>715</v>
       </c>
@@ -8161,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>716</v>
       </c>
@@ -8169,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>717</v>
       </c>
@@ -8177,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>718</v>
       </c>
@@ -8185,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>719</v>
       </c>
@@ -8193,7 +8940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>720</v>
       </c>
@@ -8201,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>721</v>
       </c>
@@ -8209,7 +8956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>722</v>
       </c>
@@ -8217,7 +8964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>723</v>
       </c>
@@ -8225,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>724</v>
       </c>
@@ -8233,7 +8980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>725</v>
       </c>
@@ -8241,7 +8988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>726</v>
       </c>
@@ -8249,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>727</v>
       </c>
@@ -8257,7 +9004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>728</v>
       </c>
@@ -8265,7 +9012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>729</v>
       </c>
@@ -8273,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>730</v>
       </c>
@@ -8281,7 +9028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>731</v>
       </c>
@@ -8289,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>732</v>
       </c>
@@ -8297,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>733</v>
       </c>
@@ -8305,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>734</v>
       </c>
@@ -8313,7 +9060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>735</v>
       </c>
@@ -8321,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>736</v>
       </c>
@@ -8329,7 +9076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>737</v>
       </c>
@@ -8337,7 +9084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>738</v>
       </c>
@@ -8345,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>739</v>
       </c>
@@ -8353,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>740</v>
       </c>
@@ -8361,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>741</v>
       </c>
@@ -8369,7 +9116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>742</v>
       </c>
@@ -8377,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>743</v>
       </c>
@@ -8385,7 +9132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>744</v>
       </c>
@@ -8393,7 +9140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>745</v>
       </c>
@@ -8401,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>746</v>
       </c>
@@ -8409,7 +9156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>747</v>
       </c>
@@ -8417,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>748</v>
       </c>
